--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_26.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1821774.186569527</v>
+        <v>1819517.164660445</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836237</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>30.04225112093034</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>245.7296093848289</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,22 +859,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>53.14836073201776</v>
       </c>
       <c r="T4" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>262.6471544819258</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0900949779775</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>132.7754574934028</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>171.0136703767079</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1178,10 +1178,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>300.8915849827644</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>146.0234081881612</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T12" t="n">
         <v>190.7165703189231</v>
@@ -1528,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>74.75769145492352</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1582,19 +1582,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>237.7551163267852</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396218</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247653</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>234.6991649574974</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>77.83107808278464</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247653</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>163.6898441249708</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>69.07155172517368</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>18.41803262400902</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>137.3066040490148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247653</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>7.934688588893064</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>183.1076175753956</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,13 +2722,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>159.482536855661</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>157.8102500158723</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>137.233813209025</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>50.75000975614362</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>74.7576914549239</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>120.1578868210703</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935318</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298068</v>
+        <v>147.5592177298067</v>
       </c>
       <c r="E37" t="n">
-        <v>145.3777073581636</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345257</v>
+        <v>144.3647927345256</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>131.601638273306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>143.6987596259152</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164171</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430364</v>
+        <v>188.7127700430363</v>
       </c>
       <c r="T37" t="n">
-        <v>6.434168981507153</v>
+        <v>218.4926939877636</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172074</v>
+        <v>285.1555829172073</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354225</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481855</v>
+        <v>285.4667430481854</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636893</v>
+        <v>217.5283980636892</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>294.6077643873208</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3679,7 +3679,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128487</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T40" t="n">
         <v>172.5738126575766</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,13 +3791,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3904,19 +3904,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G43" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124616</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S43" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T43" t="n">
         <v>172.5738126575766</v>
@@ -4141,19 +4141,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G46" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1222.906241876376</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="C2" t="n">
-        <v>1222.906241876376</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2666.803382815262</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2666.803382815262</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2666.803382815262</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2335.740495471692</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1982.971840201577</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1609.506081940498</v>
+        <v>1745.334734821698</v>
       </c>
       <c r="Y2" t="n">
-        <v>1609.506081940498</v>
+        <v>1745.334734821698</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>645.0268521994321</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>645.0268521994321</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>494.9102127870964</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>645.0268521994321</v>
       </c>
       <c r="T4" t="n">
-        <v>597.8010803716834</v>
+        <v>645.0268521994321</v>
       </c>
       <c r="U4" t="n">
-        <v>308.6274700262513</v>
+        <v>645.0268521994321</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>645.0268521994321</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>645.0268521994321</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>645.0268521994321</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>645.0268521994321</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1194.175505447095</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>825.2129885066831</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>466.9472898999326</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>466.9472898999326</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1970.914677487028</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>1580.775345511217</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
@@ -4641,28 +4641,28 @@
         <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204941</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.7988452409105</v>
+        <v>416.4487827635302</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>416.4487827635302</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>416.4487827635302</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>416.4487827635302</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>416.4487827635302</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>416.4487827635302</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>416.4487827635302</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>416.4487827635302</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1507.089911220684</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="C8" t="n">
-        <v>1138.127394280272</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="D8" t="n">
-        <v>779.861695673522</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E8" t="n">
-        <v>394.0734430752778</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F8" t="n">
         <v>221.3323618866839</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1893.689751284806</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1893.689751284806</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1893.689751284806</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>1893.689751284806</v>
+        <v>632.3182666762915</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>359.1897464970881</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>359.1897464970881</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>359.1897464970881</v>
       </c>
     </row>
     <row r="11">
@@ -5027,7 +5027,7 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551632</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5036,13 +5036,13 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>451.8458144277729</v>
+        <v>451.845814427773</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>785.6651881176197</v>
       </c>
       <c r="L11" t="n">
         <v>1650.184003770974</v>
@@ -5051,22 +5051,22 @@
         <v>2628.734306600803</v>
       </c>
       <c r="N11" t="n">
-        <v>3175.513123659585</v>
+        <v>3362.809616117414</v>
       </c>
       <c r="O11" t="n">
-        <v>3757.393206660292</v>
+        <v>3865.782086996752</v>
       </c>
       <c r="P11" t="n">
-        <v>4470.748294107238</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
         <v>4461.783306331038</v>
@@ -5094,43 +5094,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H12" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,7 +5148,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5157,13 +5157,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>171.0738540998323</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="C13" t="n">
-        <v>171.0738540998323</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D13" t="n">
-        <v>171.0738540998323</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E13" t="n">
-        <v>171.0738540998323</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F13" t="n">
-        <v>95.56103444839444</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M13" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N13" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O13" t="n">
         <v>1646.12566951853</v>
@@ -5218,10 +5218,10 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q13" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862231</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
         <v>1674.827124689058</v>
@@ -5230,19 +5230,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384227</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V13" t="n">
-        <v>909.2731541783404</v>
+        <v>1198.376021052698</v>
       </c>
       <c r="W13" t="n">
-        <v>619.8559841413798</v>
+        <v>958.2193378943285</v>
       </c>
       <c r="X13" t="n">
-        <v>391.8664332433625</v>
+        <v>730.2297869963112</v>
       </c>
       <c r="Y13" t="n">
-        <v>171.0738540998323</v>
+        <v>730.2297869963112</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G14" t="n">
         <v>435.1415336001585</v>
@@ -5273,49 +5273,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277728</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>1106.569146563072</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1971.087962216427</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2949.638265046255</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N14" t="n">
-        <v>3496.417082105037</v>
+        <v>3163.468180669545</v>
       </c>
       <c r="O14" t="n">
-        <v>3999.389552984374</v>
+        <v>4043.432830999</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188667</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161917</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L15" t="n">
         <v>794.200663232024</v>
@@ -5376,7 +5376,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142067</v>
@@ -5385,16 +5385,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282341</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>709.4168978689405</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="C16" t="n">
-        <v>540.4807149410336</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="D16" t="n">
-        <v>390.3640755286979</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839444</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839444</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442062</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927023</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892251</v>
@@ -5455,31 +5455,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104703</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1734.576850674229</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1734.576850674229</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1479.892362468343</v>
+        <v>926.8877787907956</v>
       </c>
       <c r="W16" t="n">
-        <v>1190.475192431382</v>
+        <v>637.470608753835</v>
       </c>
       <c r="X16" t="n">
-        <v>1111.85794184271</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="Y16" t="n">
-        <v>891.0653626991802</v>
+        <v>409.4810578558177</v>
       </c>
     </row>
     <row r="17">
@@ -5492,73 +5492,73 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
-        <v>1069.293752345675</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2047.844055175503</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>3027.59632740215</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O17" t="n">
-        <v>3907.560977731604</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4302.335344088782</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.03465586292</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604876</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261305</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991191</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730111</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754299</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089881</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
         <v>189.2383039390117</v>
@@ -5616,28 +5616,28 @@
         <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>260.9043113423041</v>
+        <v>728.5987256350443</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839444</v>
+        <v>559.6625427071374</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839444</v>
+        <v>409.5459032948016</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839444</v>
+        <v>409.5459032948016</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839444</v>
+        <v>262.6559557968912</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839444</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
@@ -5695,28 +5695,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U19" t="n">
-        <v>1253.788099626699</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V19" t="n">
-        <v>999.1036114208122</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W19" t="n">
-        <v>709.6864413838516</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="X19" t="n">
-        <v>481.6968904858343</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="Y19" t="n">
-        <v>260.9043113423041</v>
+        <v>910.247190465284</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5729,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551634</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L20" t="n">
-        <v>1069.293752345675</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M20" t="n">
-        <v>2047.844055175503</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N20" t="n">
-        <v>2667.236715577531</v>
+        <v>3195.001976422503</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.201365906986</v>
+        <v>3697.97444730184</v>
       </c>
       <c r="P20" t="n">
-        <v>4260.556453353932</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.03465586292</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419722</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946817</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331039</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
         <v>189.2383039390117</v>
@@ -5844,37 +5844,37 @@
         <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>343.0033510423849</v>
+        <v>431.9845838435961</v>
       </c>
       <c r="C22" t="n">
-        <v>343.0033510423849</v>
+        <v>431.9845838435961</v>
       </c>
       <c r="D22" t="n">
-        <v>192.8867116300491</v>
+        <v>281.8679444312603</v>
       </c>
       <c r="E22" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>192.8867116300491</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
         <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1764.657581931529</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="U22" t="n">
-        <v>1253.788099626699</v>
+        <v>1385.724257814701</v>
       </c>
       <c r="V22" t="n">
-        <v>999.1036114208121</v>
+        <v>1131.039769608814</v>
       </c>
       <c r="W22" t="n">
-        <v>709.6864413838515</v>
+        <v>841.6225995718532</v>
       </c>
       <c r="X22" t="n">
-        <v>481.6968904858342</v>
+        <v>613.6330486738359</v>
       </c>
       <c r="Y22" t="n">
-        <v>343.0033510423849</v>
+        <v>613.6330486738358</v>
       </c>
     </row>
     <row r="23">
@@ -5966,16 +5966,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
         <v>435.1415336001585</v>
@@ -5984,7 +5984,7 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
         <v>284.4401654074198</v>
@@ -5993,40 +5993,40 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L23" t="n">
-        <v>1069.293752345675</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M23" t="n">
-        <v>2047.844055175503</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N23" t="n">
-        <v>2877.428556330835</v>
+        <v>2996.062531649192</v>
       </c>
       <c r="O23" t="n">
-        <v>3757.39320666029</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973187</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161917</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549405</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E24" t="n">
-        <v>487.967878549485</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F24" t="n">
-        <v>341.43332057637</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089881</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468556</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
         <v>794.200663232024</v>
@@ -6078,34 +6078,34 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549551</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313402</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216075</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487873</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
         <v>1346.568408282341</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.8526275526854</v>
+        <v>498.9312815832557</v>
       </c>
       <c r="C25" t="n">
-        <v>490.9164446247785</v>
+        <v>498.9312815832557</v>
       </c>
       <c r="D25" t="n">
-        <v>340.7998052124427</v>
+        <v>348.81464217092</v>
       </c>
       <c r="E25" t="n">
-        <v>192.8867116300491</v>
+        <v>200.9015485885269</v>
       </c>
       <c r="F25" t="n">
-        <v>192.8867116300491</v>
+        <v>200.9015485885269</v>
       </c>
       <c r="G25" t="n">
         <v>192.8867116300491</v>
@@ -6142,16 +6142,16 @@
         <v>192.8867116300491</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839444</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442063</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927025</v>
       </c>
       <c r="M25" t="n">
         <v>1005.387693892251</v>
@@ -6160,37 +6160,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O25" t="n">
-        <v>1646.125669518529</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1764.65758193153</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U25" t="n">
-        <v>1579.700392461433</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>1579.700392461433</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>1290.283222424473</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X25" t="n">
-        <v>1062.293671526455</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="Y25" t="n">
-        <v>841.5010923829251</v>
+        <v>680.5797464134954</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L26" t="n">
-        <v>1069.293752345675</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M26" t="n">
-        <v>2047.844055175504</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N26" t="n">
-        <v>3027.596327402151</v>
+        <v>2812.369300656582</v>
       </c>
       <c r="O26" t="n">
-        <v>3907.560977731605</v>
+        <v>3692.333950986037</v>
       </c>
       <c r="P26" t="n">
-        <v>4405.689038432984</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="27">
@@ -6294,22 +6294,22 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>855.6340846510827</v>
+        <v>561.2936040684042</v>
       </c>
       <c r="C28" t="n">
-        <v>686.6979017231758</v>
+        <v>561.2936040684043</v>
       </c>
       <c r="D28" t="n">
-        <v>536.5812623108401</v>
+        <v>411.1769646560686</v>
       </c>
       <c r="E28" t="n">
-        <v>388.668168728447</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="F28" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736755</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6388,10 +6388,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M28" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N28" t="n">
         <v>1346.796070598116</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U28" t="n">
-        <v>1291.967037687209</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V28" t="n">
-        <v>1037.282549481322</v>
+        <v>1412.55611102446</v>
       </c>
       <c r="W28" t="n">
-        <v>1037.282549481322</v>
+        <v>1123.1389409875</v>
       </c>
       <c r="X28" t="n">
-        <v>1037.282549481322</v>
+        <v>963.7346480421741</v>
       </c>
       <c r="Y28" t="n">
-        <v>1037.282549481322</v>
+        <v>742.9420688986439</v>
       </c>
     </row>
     <row r="29">
@@ -6455,34 +6455,34 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L29" t="n">
-        <v>1803.682313196074</v>
+        <v>1840.447459262338</v>
       </c>
       <c r="M29" t="n">
-        <v>2782.232616025903</v>
+        <v>2373.979363934262</v>
       </c>
       <c r="N29" t="n">
-        <v>3329.011433084685</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O29" t="n">
-        <v>3865.782086996753</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P29" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,43 +6516,43 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6561,7 +6561,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R30" t="n">
         <v>2593.958107142068</v>
@@ -6570,16 +6570,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282342</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>550.0071782166611</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C31" t="n">
-        <v>381.0709952887543</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D31" t="n">
-        <v>381.0709952887543</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>381.0709952887543</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>234.1810477908439</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6625,10 +6625,10 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N31" t="n">
         <v>1346.796070598116</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.890966501056</v>
+        <v>1385.724257814702</v>
       </c>
       <c r="V31" t="n">
-        <v>1288.206478295169</v>
+        <v>1334.461621697385</v>
       </c>
       <c r="W31" t="n">
-        <v>998.7893082582085</v>
+        <v>1045.044451660424</v>
       </c>
       <c r="X31" t="n">
-        <v>770.7997573601913</v>
+        <v>817.054900762407</v>
       </c>
       <c r="Y31" t="n">
-        <v>550.0071782166611</v>
+        <v>596.2623216188769</v>
       </c>
     </row>
     <row r="32">
@@ -6689,31 +6689,31 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L32" t="n">
-        <v>1650.184003770974</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M32" t="n">
-        <v>2183.715908442899</v>
+        <v>2368.748013620957</v>
       </c>
       <c r="N32" t="n">
-        <v>3163.468180669545</v>
+        <v>3196.009277420604</v>
       </c>
       <c r="O32" t="n">
-        <v>4043.432830999</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
         <v>4470.748294107237</v>
@@ -6753,64 +6753,64 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K33" t="n">
         <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>171.0738540998329</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="C34" t="n">
-        <v>171.0738540998329</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D34" t="n">
-        <v>171.0738540998329</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E34" t="n">
-        <v>171.0738540998327</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F34" t="n">
-        <v>171.0738540998327</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6889,19 +6889,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1163.957642384228</v>
+        <v>1331.688906409018</v>
       </c>
       <c r="V34" t="n">
-        <v>909.2731541783409</v>
+        <v>1077.004418203131</v>
       </c>
       <c r="W34" t="n">
-        <v>619.8559841413803</v>
+        <v>787.5872481661708</v>
       </c>
       <c r="X34" t="n">
-        <v>391.866433243363</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.0738540998329</v>
+        <v>559.5976972681534</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6914,16 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
         <v>435.1415336001585</v>
@@ -6941,22 +6941,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>2504.619866888352</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N35" t="n">
-        <v>3051.398683947134</v>
+        <v>3070.887536710053</v>
       </c>
       <c r="O35" t="n">
-        <v>3692.333950986038</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,37 +6990,37 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193584</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>537.2799413398047</v>
+        <v>668.5149822903677</v>
       </c>
       <c r="C37" t="n">
-        <v>537.2799413398047</v>
+        <v>668.5149822903677</v>
       </c>
       <c r="D37" t="n">
-        <v>388.2302264612119</v>
+        <v>519.465267411775</v>
       </c>
       <c r="E37" t="n">
-        <v>241.3840574125618</v>
+        <v>519.465267411775</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>373.6422444476077</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>240.7112966967936</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7096,49 +7096,49 @@
         <v>141.7293596308515</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152493</v>
+        <v>346.7622353152494</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992668</v>
+        <v>664.3677264992672</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834337</v>
+        <v>1009.570464834338</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275723</v>
+        <v>1352.024534275724</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931658</v>
+        <v>1652.399825931659</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100839</v>
+        <v>1886.05301910084</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988875</v>
+        <v>1964.709007988876</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988875</v>
+        <v>1875.945475280147</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349444</v>
+        <v>1685.326515640716</v>
       </c>
       <c r="T37" t="n">
-        <v>1767.590887762064</v>
+        <v>1464.626824743986</v>
       </c>
       <c r="U37" t="n">
-        <v>1479.55494542145</v>
+        <v>1176.590882403372</v>
       </c>
       <c r="V37" t="n">
-        <v>1225.937381749306</v>
+        <v>1176.590882403372</v>
       </c>
       <c r="W37" t="n">
-        <v>937.5871362460887</v>
+        <v>888.2406369001548</v>
       </c>
       <c r="X37" t="n">
-        <v>937.5871362460887</v>
+        <v>888.2406369001548</v>
       </c>
       <c r="Y37" t="n">
-        <v>717.8614816363015</v>
+        <v>668.5149822903677</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7172,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>301.0727330329186</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>634.892106722765</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.926319971174</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2064.476622801002</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N38" t="n">
-        <v>3044.228895027648</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,34 +7227,34 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193588</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
         <v>794.200663232024</v>
@@ -7263,28 +7263,28 @@
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215054</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C40" t="n">
         <v>667.0286178416718</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774094</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430896</v>
+        <v>463.8981507430895</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932525</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
@@ -7333,10 +7333,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7354,7 +7354,7 @@
         <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
-        <v>2286.005723829557</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
         <v>2141.769472604457</v>
@@ -7409,25 +7409,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>845.0839474760708</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1296.118160724479</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M41" t="n">
-        <v>2274.668463554308</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N41" t="n">
-        <v>3254.420735780954</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O41" t="n">
-        <v>3757.393206660291</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q41" t="n">
         <v>4719.034655862919</v>
@@ -7448,7 +7448,7 @@
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,22 +7464,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,25 +7488,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193588</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215059</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416723</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774099</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.89815074309</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932529</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160452</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819764</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7582,19 +7582,19 @@
         <v>1579.322996860149</v>
       </c>
       <c r="O43" t="n">
-        <v>1925.15798103297</v>
+        <v>1925.157981032969</v>
       </c>
       <c r="P43" t="n">
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
-        <v>2286.005723829559</v>
+        <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7603,16 +7603,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036722</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,28 +7646,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L44" t="n">
-        <v>1390.197710791128</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M44" t="n">
-        <v>1923.729615463053</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N44" t="n">
-        <v>2667.236715577531</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215055</v>
+        <v>788.5151678215054</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416719</v>
+        <v>667.0286178416718</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774095</v>
+        <v>564.3616113774094</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430897</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932527</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G46" t="n">
         <v>244.2046325160447</v>
@@ -7804,7 +7804,7 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
         <v>437.6816203490197</v>
@@ -7831,7 +7831,7 @@
         <v>2286.005723829558</v>
       </c>
       <c r="S46" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T46" t="n">
         <v>1967.452490122057</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.713999703672</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8547,10 +8547,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8699,16 +8699,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>189.1883762200289</v>
       </c>
       <c r="O11" t="n">
-        <v>79.7046587084543</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8927,28 +8927,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>11.64153443579005</v>
+        <v>32.86979469803885</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.201528428093297e-13</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>170.1140909277327</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.201528428093297e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9410,13 +9410,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
-        <v>73.34731650832919</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>169.5026663584976</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9641,22 +9641,22 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>285.6623071682321</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>48.65289230147073</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9711,7 +9711,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>9.201528428093297e-13</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9884,13 +9884,13 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>50.84927212317484</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>104.3976710547475</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10109,22 +10109,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>285.7011105564207</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>34.13957882094019</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>283.3156027685499</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>32.86979469803885</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10589,16 +10589,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>139.3563597571384</v>
+        <v>185.3870697685874</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,22 +10820,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>16.80057335908973</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>229.1155640189945</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>29.61882225792135</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>198.7154374299955</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>251.1867816683983</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23416,19 +23416,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>70.66335656800773</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>48.76788200980582</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>17.43847836633059</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>147.8785773062525</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>3.556976973657026</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>96.95425653385455</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0159300225602</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.27804930308002</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>158.0911196701352</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>103.1042206302173</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>126.7293013499519</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>67.89940537316485</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>28.79199505000321</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>201.3876335676844</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,10 +25087,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>91.26811680410432</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>96.35242040983809</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>166.0539513845426</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>178.7757248935317</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102223</v>
+        <v>166.1905658102222</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581635</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706227</v>
+        <v>33.36791469731659</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259152</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143255</v>
+        <v>95.29616512143247</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,25 +25357,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164181</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>212.0585250062565</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>251.0813880354224</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006316</v>
+        <v>224.6534001006315</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-4.496403377417642e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>890935.509540873</v>
+        <v>890935.5095408731</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>890935.5095408731</v>
+        <v>890935.509540873</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>890935.509540873</v>
+        <v>890935.5095408731</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>890935.509540873</v>
+        <v>890935.5095408731</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>890935.5095408731</v>
+        <v>890935.509540873</v>
       </c>
     </row>
     <row r="12">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>533677.1504117844</v>
+      </c>
+      <c r="C2" t="n">
+        <v>533677.1504117842</v>
+      </c>
+      <c r="D2" t="n">
         <v>533677.1504117843</v>
       </c>
-      <c r="C2" t="n">
-        <v>533677.1504117844</v>
-      </c>
-      <c r="D2" t="n">
-        <v>533677.1504117848</v>
-      </c>
       <c r="E2" t="n">
-        <v>516206.322953078</v>
+        <v>516206.3229530785</v>
       </c>
       <c r="F2" t="n">
         <v>516206.322953078</v>
@@ -26329,31 +26329,31 @@
         <v>516206.3229530781</v>
       </c>
       <c r="H2" t="n">
+        <v>516206.3229530779</v>
+      </c>
+      <c r="I2" t="n">
         <v>516206.3229530781</v>
-      </c>
-      <c r="I2" t="n">
-        <v>516206.322953078</v>
       </c>
       <c r="J2" t="n">
         <v>516206.3229530782</v>
       </c>
       <c r="K2" t="n">
-        <v>516206.3229530781</v>
+        <v>516206.3229530784</v>
       </c>
       <c r="L2" t="n">
-        <v>516206.3229530779</v>
+        <v>516206.3229530782</v>
       </c>
       <c r="M2" t="n">
-        <v>516599.1617019236</v>
+        <v>516599.1617019239</v>
       </c>
       <c r="N2" t="n">
-        <v>533677.1504117846</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="O2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="P2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117845</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934068</v>
+        <v>727377.4139934069</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,13 +26399,13 @@
         <v>130487.3190696693</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414963</v>
+        <v>36735.10506414955</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18148.49231918992</v>
+      </c>
+      <c r="G4" t="n">
         <v>18148.49231918995</v>
       </c>
-      <c r="F4" t="n">
-        <v>18148.49231918989</v>
-      </c>
-      <c r="G4" t="n">
-        <v>18148.4923191899</v>
-      </c>
       <c r="H4" t="n">
-        <v>18148.49231918996</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="I4" t="n">
-        <v>18148.49231918995</v>
+        <v>18148.49231918994</v>
       </c>
       <c r="J4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="K4" t="n">
-        <v>18148.49231918994</v>
+        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811456</v>
+        <v>18496.05294811461</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="P4" t="n">
         <v>33605.65329740899</v>
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26522,46 +26522,46 @@
         <v>-322498.4937232975</v>
       </c>
       <c r="C6" t="n">
-        <v>267469.3854912471</v>
+        <v>267469.3854912468</v>
       </c>
       <c r="D6" t="n">
-        <v>267469.3854912474</v>
+        <v>267469.3854912469</v>
       </c>
       <c r="E6" t="n">
-        <v>-325703.1016132324</v>
+        <v>-325770.2971034577</v>
       </c>
       <c r="F6" t="n">
-        <v>401674.3123801745</v>
+        <v>401607.1168899488</v>
       </c>
       <c r="G6" t="n">
-        <v>401674.3123801745</v>
+        <v>401607.1168899488</v>
       </c>
       <c r="H6" t="n">
-        <v>401674.3123801745</v>
+        <v>401607.1168899485</v>
       </c>
       <c r="I6" t="n">
-        <v>401674.3123801744</v>
+        <v>401607.1168899487</v>
       </c>
       <c r="J6" t="n">
-        <v>225251.0931875816</v>
+        <v>225183.8976973559</v>
       </c>
       <c r="K6" t="n">
-        <v>401674.3123801745</v>
+        <v>401607.116889949</v>
       </c>
       <c r="L6" t="n">
-        <v>401674.3123801743</v>
+        <v>401607.1168899488</v>
       </c>
       <c r="M6" t="n">
-        <v>271143.4731045851</v>
+        <v>271077.7885326244</v>
       </c>
       <c r="N6" t="n">
-        <v>363003.7210361239</v>
+        <v>363003.7210361238</v>
       </c>
       <c r="O6" t="n">
-        <v>399738.8261002732</v>
+        <v>399738.8261002733</v>
       </c>
       <c r="P6" t="n">
-        <v>399738.8261002732</v>
+        <v>399738.8261002734</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="3">
@@ -26741,10 +26741,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018703</v>
+        <v>45.91888133018694</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762118</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503749</v>
+        <v>520.2256578503747</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>144.3734616880412</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>124.0014912936401</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27579,22 +27579,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>158.9971782180011</v>
       </c>
       <c r="T4" t="n">
-        <v>96.01048066168096</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>120.0866871815548</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>11.78595076373398</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>79.37008145661613</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>235.8623753650035</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>85.34635367328923</v>
       </c>
     </row>
     <row r="9">
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>2.592064830051129</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28378,7 +28378,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.676880856393836e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405529</v>
+        <v>1.056255288405622</v>
       </c>
     </row>
     <row r="38">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30517,7 +30517,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-1.220737668510449e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
   </sheetData>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H11" t="n">
         <v>44.86703772844668</v>
@@ -31759,40 +31759,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31911,43 +31911,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L13" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U13" t="n">
         <v>0.1071911508780295</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32564,7 +32564,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970255</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
         <v>447.6103584002926</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I23" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138796</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I41" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35021,7 +35021,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35261,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407864</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>741.4902116329404</v>
       </c>
       <c r="O11" t="n">
-        <v>587.7576595966734</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636243</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O13" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427824</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>410.4035206551617</v>
+        <v>431.6317809174107</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509644</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q17" t="n">
-        <v>420.9083957314522</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554004</v>
@@ -36130,13 +36130,13 @@
         <v>988.434649323059</v>
       </c>
       <c r="N20" t="n">
-        <v>625.6491519212404</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509644</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908542</v>
+        <v>568.2646525778692</v>
       </c>
       <c r="Q20" t="n">
         <v>463.1092954636241</v>
@@ -36212,7 +36212,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923319</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M23" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>837.9641425811434</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509644</v>
+        <v>556.7058931896898</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443195</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554005</v>
@@ -36604,13 +36604,13 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>603.1511075360863</v>
       </c>
       <c r="O26" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>503.1596572741194</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
         <v>250.7943048037195</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K28" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L28" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M28" t="n">
         <v>347.6333793934838</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>741.2912249487529</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>542.1925797091593</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36853,7 +36853,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,13 +36987,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M31" t="n">
         <v>347.6333793934838</v>
@@ -37066,25 +37066,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>835.6174381814614</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>431.6317809174107</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
         <v>250.7943048037195</v>
@@ -37148,7 +37148,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340054</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K34" t="n">
         <v>206.0476595443196</v>
@@ -37309,16 +37309,16 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>647.4093606453575</v>
+        <v>693.4400706568065</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147176</v>
+        <v>46.63467190147185</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327251</v>
+        <v>207.1039148327252</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586036</v>
+        <v>320.8136274586037</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818893</v>
+        <v>348.6896346818895</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559456</v>
+        <v>345.9132014559457</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110453</v>
+        <v>303.4093855110454</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335159</v>
+        <v>236.0133264335161</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629915</v>
+        <v>79.45049382629928</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>207.5875743278022</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37707,16 +37707,16 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>566.3068505743948</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923319</v>
+        <v>485.2089366502535</v>
       </c>
       <c r="M41" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248955</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37944,7 +37944,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>751.017272842907</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>759.2397825566175</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38038,7 +38038,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887908</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M46" t="n">
         <v>394.6085160120764</v>
